--- a/Resource/excel/排行-排行配置.xlsx
+++ b/Resource/excel/排行-排行配置.xlsx
@@ -179,7 +179,7 @@
     <t>Id(int)</t>
   </si>
   <si>
-    <t>Type(int)</t>
+    <t>ZoneType(int)</t>
   </si>
   <si>
     <t>MaxCount(int)</t>
@@ -214,10 +214,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -230,24 +230,28 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -257,7 +261,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,36 +357,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,84 +396,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -419,91 +416,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,91 +596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,15 +625,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -648,39 +636,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,6 +657,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -710,153 +692,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1334,7 +1331,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1401,8 +1398,6 @@
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1461,8 +1456,6 @@
       <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1488,21 +1481,12 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
       <c r="J5" s="3">
         <v>0</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
       <c r="S5" s="8"/>
     </row>
     <row r="6" s="3" customFormat="1" spans="4:19">
@@ -1510,17 +1494,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
       <c r="S6" s="8"/>
     </row>
     <row r="7" s="3" customFormat="1" spans="4:19">
@@ -1528,17 +1502,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
       <c r="S7" s="8"/>
     </row>
     <row r="8" s="3" customFormat="1" spans="4:19">
@@ -1546,17 +1510,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
       <c r="S8" s="8"/>
     </row>
   </sheetData>

--- a/Resource/excel/排行-排行配置.xlsx
+++ b/Resource/excel/排行-排行配置.xlsx
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>*dark_config</t>
   </si>
@@ -176,6 +176,9 @@
     <t>排行榜的计算属性</t>
   </si>
   <si>
+    <t>玩家显示的数据</t>
+  </si>
+  <si>
     <t>Id(int)</t>
   </si>
   <si>
@@ -203,10 +206,16 @@
     <t>CalcData(string)</t>
   </si>
   <si>
+    <t>ShowData(string)</t>
+  </si>
+  <si>
     <t>300</t>
   </si>
   <si>
     <t>basic:grade:1000000,player:kill:1000000</t>
+  </si>
+  <si>
+    <t>id,name</t>
   </si>
 </sst>
 </file>
@@ -216,8 +225,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -246,97 +255,104 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,6 +374,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -373,26 +397,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -416,13 +425,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,31 +557,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,133 +593,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,21 +616,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -640,54 +634,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -707,6 +657,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -715,10 +724,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,133 +736,133 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1330,8 +1339,8 @@
   <sheetPr/>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1376,7 +1385,7 @@
       <c r="G1" s="10"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
+    <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1404,8 +1413,11 @@
       <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
+    <row r="3" s="1" customFormat="1" spans="1:12">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1433,34 +1445,40 @@
       <c r="K3" s="1">
         <v>1</v>
       </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="72" customHeight="1" spans="1:11">
+    <row r="4" s="2" customFormat="1" ht="72" customHeight="1" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:19">
@@ -1477,7 +1495,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
@@ -1485,7 +1503,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="S5" s="8"/>
     </row>

--- a/Resource/excel/排行-排行配置.xlsx
+++ b/Resource/excel/排行-排行配置.xlsx
@@ -1340,7 +1340,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
